--- a/Secondary files/EMPLEADOS - edit.xlsx
+++ b/Secondary files/EMPLEADOS - edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm Community Edition 2022.3.1\PyCharmProjects\employees_databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm Community Edition 2022.3.1\PyCharmProjects\employees\Secondary files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2249E73B-ACF5-4B5D-B1F4-BE4D065E944E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21995016-E889-4D38-A66C-79DCA8ADE00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{35843C29-D44F-46F4-8606-58C28F490589}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{35843C29-D44F-46F4-8606-58C28F490589}"/>
   </bookViews>
   <sheets>
     <sheet name="FERRESTEEL" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>ana  gabriela villegas  muñoz</author>
   </authors>
   <commentList>
-    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{E623077A-12AE-4432-BDB5-889A911B9CF2}">
+    <comment ref="W3" authorId="0" shapeId="0" xr:uid="{E623077A-12AE-4432-BDB5-889A911B9CF2}">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V4" authorId="0" shapeId="0" xr:uid="{0B37F0E5-2CD6-4F5C-8EE1-5FA55EBF4895}">
+    <comment ref="W4" authorId="0" shapeId="0" xr:uid="{0B37F0E5-2CD6-4F5C-8EE1-5FA55EBF4895}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V6" authorId="0" shapeId="0" xr:uid="{B391F17E-F8AB-46CE-907F-BE61842B07AD}">
+    <comment ref="W6" authorId="0" shapeId="0" xr:uid="{B391F17E-F8AB-46CE-907F-BE61842B07AD}">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V8" authorId="0" shapeId="0" xr:uid="{813FEFE8-082B-43D8-B887-B0FB49BC7A01}">
+    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{813FEFE8-082B-43D8-B887-B0FB49BC7A01}">
       <text>
         <r>
           <rPr>
@@ -140,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V11" authorId="0" shapeId="0" xr:uid="{9AA77DBD-4615-4C90-AA57-FD0C3C50CEE7}">
+    <comment ref="W11" authorId="0" shapeId="0" xr:uid="{9AA77DBD-4615-4C90-AA57-FD0C3C50CEE7}">
       <text>
         <r>
           <rPr>
@@ -164,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W16" authorId="0" shapeId="0" xr:uid="{3BD86B5D-5454-42FC-97F8-5D3458F937C8}">
+    <comment ref="X16" authorId="0" shapeId="0" xr:uid="{3BD86B5D-5454-42FC-97F8-5D3458F937C8}">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W21" authorId="0" shapeId="0" xr:uid="{EDE6B29B-59CE-437C-BF43-4946639E8517}">
+    <comment ref="X21" authorId="0" shapeId="0" xr:uid="{EDE6B29B-59CE-437C-BF43-4946639E8517}">
       <text>
         <r>
           <rPr>
@@ -212,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W22" authorId="0" shapeId="0" xr:uid="{E463E213-F7DD-46C5-A6E4-BD46FFE2CC49}">
+    <comment ref="X22" authorId="0" shapeId="0" xr:uid="{E463E213-F7DD-46C5-A6E4-BD46FFE2CC49}">
       <text>
         <r>
           <rPr>
@@ -236,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W24" authorId="0" shapeId="0" xr:uid="{C091E13A-5C8E-4D0D-B0D2-9BA971114CA9}">
+    <comment ref="X24" authorId="0" shapeId="0" xr:uid="{C091E13A-5C8E-4D0D-B0D2-9BA971114CA9}">
       <text>
         <r>
           <rPr>
@@ -260,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V26" authorId="0" shapeId="0" xr:uid="{8095202C-F516-4FA3-948F-6B33F782EE89}">
+    <comment ref="W26" authorId="0" shapeId="0" xr:uid="{8095202C-F516-4FA3-948F-6B33F782EE89}">
       <text>
         <r>
           <rPr>
@@ -376,7 +376,7 @@
     <author>ana  gabriela villegas  muñoz</author>
   </authors>
   <commentList>
-    <comment ref="W5" authorId="0" shapeId="0" xr:uid="{8C367A76-14CC-4716-826F-06BA3A5E27AF}">
+    <comment ref="Y5" authorId="0" shapeId="0" xr:uid="{8C367A76-14CC-4716-826F-06BA3A5E27AF}">
       <text>
         <r>
           <rPr>
@@ -390,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W6" authorId="0" shapeId="0" xr:uid="{D2EEA666-6569-458F-8DA1-AC038EA497C6}">
+    <comment ref="Y6" authorId="0" shapeId="0" xr:uid="{D2EEA666-6569-458F-8DA1-AC038EA497C6}">
       <text>
         <r>
           <rPr>
@@ -414,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W7" authorId="0" shapeId="0" xr:uid="{EB8E053A-200A-4728-93B9-487F4B186CD8}">
+    <comment ref="Y7" authorId="0" shapeId="0" xr:uid="{EB8E053A-200A-4728-93B9-487F4B186CD8}">
       <text>
         <r>
           <rPr>
@@ -443,7 +443,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="442">
   <si>
     <t>NO.</t>
   </si>
@@ -1030,9 +1030,6 @@
     <t>FECHA CONTRATO DETERMINADO</t>
   </si>
   <si>
-    <t xml:space="preserve">GUTIERREZ SALAZAR ANGEL ANDRES </t>
-  </si>
-  <si>
     <t>GUSA990916HCHTLN00</t>
   </si>
   <si>
@@ -1048,9 +1045,6 @@
     <t>31/08/2021 02/05/2022</t>
   </si>
   <si>
-    <t xml:space="preserve">GUTIERREZ SALAZAR SERGIO </t>
-  </si>
-  <si>
     <t>GUSS900914HCHTLR05</t>
   </si>
   <si>
@@ -1063,18 +1057,12 @@
     <t>SergioGutierrez1490@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">GUTIERREZ SALAZAR LUIS MATEO </t>
-  </si>
-  <si>
     <t>GUSL950926HCHTLS09</t>
   </si>
   <si>
     <t>GUSL9509263R3</t>
   </si>
   <si>
-    <t>GARCIA GARCIA FELIX ALVARO</t>
-  </si>
-  <si>
     <t>GAGF880512HCHRRL05</t>
   </si>
   <si>
@@ -1757,14 +1745,39 @@
   </si>
   <si>
     <t>CECILIA NOHEMI</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>ANGEL ANDRES</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALAZAR </t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>LUIS MATEO</t>
+  </si>
+  <si>
+    <t>FELIX ALVARO</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="000"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -2013,7 +2026,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2039,9 +2052,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2057,9 +2067,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2070,9 +2077,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2163,6 +2167,22 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2170,42 +2190,8 @@
   </cellStyles>
   <dxfs count="66">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2219,18 +2205,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2244,12 +2223,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2260,13 +2238,14 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2277,9 +2256,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2411,6 +2390,18 @@
       <font>
         <b val="0"/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -3013,6 +3004,56 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3083,38 +3124,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3270,23 +3289,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3301,23 +3303,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3419,6 +3404,40 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3515,6 +3534,11 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3623,7 +3647,7 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>536121</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3698,40 +3722,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C46EE823-B793-4AA5-8181-BFED541C76ED}" name="Tabla1" displayName="Tabla1" ref="A1:X31" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
-  <autoFilter ref="A1:X31" xr:uid="{1DBC528C-3FEA-4ED0-ABBD-DAC59C3E58F3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U27">
-    <sortCondition ref="A1:A27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C46EE823-B793-4AA5-8181-BFED541C76ED}" name="Tabla1" displayName="Tabla1" ref="B1:Y31" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+  <autoFilter ref="B1:Y31" xr:uid="{1DBC528C-3FEA-4ED0-ABBD-DAC59C3E58F3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:V27">
+    <sortCondition ref="B1:B27"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{D6DC9ACD-2987-4FD2-9D0E-F977C82C0228}" name="NO." dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{0EBA1221-CBB7-41E3-9445-723447F2A10F}" name="APELLIDO PATERNO" dataDxfId="59"/>
-    <tableColumn id="12" xr3:uid="{B35E07D3-B8B6-4D50-9139-8FF6E4643A4C}" name="APELLIDO MATERNO" dataDxfId="6"/>
-    <tableColumn id="24" xr3:uid="{AA77E772-52C3-4E5F-9A36-57687E30D4E6}" name="NOMBRES" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{3003EE6B-D478-4BC3-9A3C-43B780BD62B0}" name="CURP " dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{6D7A8FF8-8F5E-4031-8563-F237E0BDD18A}" name="RFC " dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{A5187352-DD68-41AF-8663-2388845C9BA6}" name="NSS" dataDxfId="56"/>
-    <tableColumn id="21" xr3:uid="{A14234D5-85CB-401F-A76D-A024C7F332B8}" name="ESTADO CIVIL " dataDxfId="55"/>
-    <tableColumn id="22" xr3:uid="{CC6F1BBB-6EE2-4312-9710-CFCD9BA73036}" name="ESTUDIOS" dataDxfId="54"/>
-    <tableColumn id="23" xr3:uid="{76AF7F3E-EBA0-4A30-BEFA-CE6E4E3B214D}" name="EDAD " dataDxfId="53">
+    <tableColumn id="1" xr3:uid="{D6DC9ACD-2987-4FD2-9D0E-F977C82C0228}" name="NO." dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{0EBA1221-CBB7-41E3-9445-723447F2A10F}" name="APELLIDO PATERNO" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{B35E07D3-B8B6-4D50-9139-8FF6E4643A4C}" name="APELLIDO MATERNO" dataDxfId="57"/>
+    <tableColumn id="24" xr3:uid="{AA77E772-52C3-4E5F-9A36-57687E30D4E6}" name="NOMBRES" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{3003EE6B-D478-4BC3-9A3C-43B780BD62B0}" name="CURP " dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{6D7A8FF8-8F5E-4031-8563-F237E0BDD18A}" name="RFC " dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{A5187352-DD68-41AF-8663-2388845C9BA6}" name="NSS" dataDxfId="53"/>
+    <tableColumn id="21" xr3:uid="{A14234D5-85CB-401F-A76D-A024C7F332B8}" name="ESTADO CIVIL " dataDxfId="52"/>
+    <tableColumn id="22" xr3:uid="{CC6F1BBB-6EE2-4312-9710-CFCD9BA73036}" name="ESTUDIOS" dataDxfId="51"/>
+    <tableColumn id="23" xr3:uid="{76AF7F3E-EBA0-4A30-BEFA-CE6E4E3B214D}" name="EDAD " dataDxfId="50">
       <calculatedColumnFormula>DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{3507F3C8-A3A5-467B-995A-416C11B02D45}" name="FECHA DE INGRESO " dataDxfId="52"/>
-    <tableColumn id="14" xr3:uid="{1407748E-66E5-40ED-8DFD-AE8975B95CD6}" name="AÑOS EN LA EMPRESA" dataDxfId="51">
+    <tableColumn id="19" xr3:uid="{3507F3C8-A3A5-467B-995A-416C11B02D45}" name="FECHA DE INGRESO " dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{1407748E-66E5-40ED-8DFD-AE8975B95CD6}" name="AÑOS EN LA EMPRESA" dataDxfId="49">
       <calculatedColumnFormula>DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{09346237-854D-445C-A972-256F320EABB6}" name="FECHA DE NACIMIENTO " dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{538AAC53-C95F-4ABD-8084-BC4E65D7E1A0}" name="DIRECCIÓN " dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{96100FA5-A0A1-4890-9C15-D3A1D8EA20BC}" name="TELEFONO " dataDxfId="48"/>
-    <tableColumn id="20" xr3:uid="{A4E2E364-A664-41C6-BA8D-C94D11B098B8}" name="CORREO ELECTRONICO " dataDxfId="47"/>
-    <tableColumn id="17" xr3:uid="{44340D91-586E-4493-AAF8-59592F6B8E63}" name="NÚMERO DE EMERGENCIA " dataDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{198ECF55-138F-422B-9156-4534B7DA036A}" name="ALERGIAS " dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{356AA7DF-E44D-4995-8AA4-D8269C3759DB}" name="ENFERMEDADES " dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{19AE9EB1-9028-43CD-A963-77750F85256F}" name="TIPO DE SANGRE" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{3CA0C42E-9D13-4FE1-A7A0-EA9D402B206A}" name="ESTATUS " dataDxfId="42"/>
-    <tableColumn id="15" xr3:uid="{B8B3B5AE-7F3D-4D3E-9E8A-10F534564CDF}" name="FECHA CONTRATO DETERMINADO  " dataDxfId="41"/>
-    <tableColumn id="16" xr3:uid="{8E5D88B1-A0B6-4092-833C-C1D69003E00C}" name="FECHA CONTRATO INDETERMINADO " dataDxfId="40"/>
-    <tableColumn id="25" xr3:uid="{EA576CC3-A995-4617-BB4B-9D4CF8B7229E}" name="FECHA DE BAJA" dataDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{09346237-854D-445C-A972-256F320EABB6}" name="FECHA DE NACIMIENTO " dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{538AAC53-C95F-4ABD-8084-BC4E65D7E1A0}" name="DIRECCIÓN " dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{96100FA5-A0A1-4890-9C15-D3A1D8EA20BC}" name="TELEFONO " dataDxfId="47"/>
+    <tableColumn id="20" xr3:uid="{A4E2E364-A664-41C6-BA8D-C94D11B098B8}" name="CORREO ELECTRONICO " dataDxfId="46"/>
+    <tableColumn id="17" xr3:uid="{44340D91-586E-4493-AAF8-59592F6B8E63}" name="NÚMERO DE EMERGENCIA " dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{198ECF55-138F-422B-9156-4534B7DA036A}" name="ALERGIAS " dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{356AA7DF-E44D-4995-8AA4-D8269C3759DB}" name="ENFERMEDADES " dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{19AE9EB1-9028-43CD-A963-77750F85256F}" name="TIPO DE SANGRE" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{3CA0C42E-9D13-4FE1-A7A0-EA9D402B206A}" name="ESTATUS " dataDxfId="41"/>
+    <tableColumn id="15" xr3:uid="{B8B3B5AE-7F3D-4D3E-9E8A-10F534564CDF}" name="FECHA CONTRATO DETERMINADO  " dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{8E5D88B1-A0B6-4092-833C-C1D69003E00C}" name="FECHA CONTRATO INDETERMINADO " dataDxfId="0"/>
+    <tableColumn id="25" xr3:uid="{EA576CC3-A995-4617-BB4B-9D4CF8B7229E}" name="FECHA DE BAJA" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3746,45 +3770,47 @@
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{24941556-7EF0-420E-83CE-7A3C1278B318}" name="NO." dataDxfId="37"/>
     <tableColumn id="2" xr3:uid="{FD3D1F1F-94DF-442C-8460-1A1A8B6C8808}" name="NOMBRE " dataDxfId="36"/>
-    <tableColumn id="27" xr3:uid="{FEDFC876-EEA0-4351-B6FD-E2C93FD32FC7}" name="Column2" dataDxfId="4"/>
-    <tableColumn id="28" xr3:uid="{EDBE5D62-64C3-4E3C-AFE5-45C8564D1704}" name="Column3" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{574AB023-D15E-4CB8-B1A9-5F24D3B97D24}" name="CURP " dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{201CB9EB-F70A-44A1-A566-B01060EE4FC1}" name="RFC " dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{0F0A7FBF-D99C-4351-96BB-C5C4C41FA989}" name="NSS" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{9751C6C5-043B-4CD0-8C63-6E3C95A0A02D}" name="ESTADO CIVIL " dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{F65A2EFD-D9C7-4702-B2AA-60ECAF00F3E0}" name="ESTUDIOS" dataDxfId="31"/>
-    <tableColumn id="20" xr3:uid="{FA0D5D9C-FFD6-4F3B-98BE-5CEEA43FA6D8}" name="EDAD" dataDxfId="30">
+    <tableColumn id="27" xr3:uid="{FEDFC876-EEA0-4351-B6FD-E2C93FD32FC7}" name="Column2" dataDxfId="35"/>
+    <tableColumn id="28" xr3:uid="{EDBE5D62-64C3-4E3C-AFE5-45C8564D1704}" name="Column3" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{574AB023-D15E-4CB8-B1A9-5F24D3B97D24}" name="CURP " dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{201CB9EB-F70A-44A1-A566-B01060EE4FC1}" name="RFC " dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{0F0A7FBF-D99C-4351-96BB-C5C4C41FA989}" name="NSS" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{9751C6C5-043B-4CD0-8C63-6E3C95A0A02D}" name="ESTADO CIVIL " dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{F65A2EFD-D9C7-4702-B2AA-60ECAF00F3E0}" name="ESTUDIOS" dataDxfId="29"/>
+    <tableColumn id="20" xr3:uid="{FA0D5D9C-FFD6-4F3B-98BE-5CEEA43FA6D8}" name="EDAD" dataDxfId="28">
       <calculatedColumnFormula>DATEDIF(Tabla2[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{28C22F29-6B6D-4F75-B5C9-8353B25FFA38}" name="FECHA DE INGRESO FERRE STEEL " dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{6D0D6EE2-DC89-40FE-A4FC-C083FE196C99}" name="FECHA DE INGRESO MAURO" dataDxfId="28"/>
-    <tableColumn id="22" xr3:uid="{FE318CC0-74A7-45F3-B1B1-CA6F10922C5D}" name="AÑOS EN LA EMPRESA" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{AAF82CA2-29BC-4337-AF2D-DBF7D21A4EC1}" name="FECHA DE NACIMIENTO " dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{C1204C08-5407-4701-88FD-F1A00E34D31E}" name="DIRECCIÓN " dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{4868A5C1-9048-4245-9869-FC1EAE6BABD9}" name="TELEFONO " dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{B860C9EE-E324-4CEE-88F8-E6EDB53C9677}" name="CORREO ELECTRONICO " dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{5477139C-EC03-4174-83AF-4F236C5F8FB4}" name="NÚMERO DE EMERGENCIA " dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{C43EA365-97DB-4401-A9C3-9272B6157401}" name="ALERGIAS " dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{B8BAF8FF-D69F-431C-9741-6F6D05DEE5A7}" name="ENFERMEDADES " dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{4D54FA30-0F2A-43AF-A558-252ED265B24D}" name="TIPO DE SANGRE" dataDxfId="19"/>
-    <tableColumn id="18" xr3:uid="{C73F2AAE-CC10-48C4-9CE3-3A5C20E91D36}" name="ESTATUS " dataDxfId="18"/>
-    <tableColumn id="23" xr3:uid="{99FE810D-F88A-4DC6-A9AC-E0BF3431882C}" name="FECHA  CONTRATO DETERMINADO" dataDxfId="17"/>
-    <tableColumn id="24" xr3:uid="{CC7CECF8-C364-4317-B40F-F9563723D3A5}" name="FECHA CONTRATO INDETERMINADO" dataDxfId="16"/>
-    <tableColumn id="25" xr3:uid="{3FF22B8D-43AE-4DB1-B3E7-28EDAF79E374}" name="FECHA DE BAJA " dataDxfId="15"/>
+    <tableColumn id="21" xr3:uid="{28C22F29-6B6D-4F75-B5C9-8353B25FFA38}" name="FECHA DE INGRESO FERRE STEEL " dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{6D0D6EE2-DC89-40FE-A4FC-C083FE196C99}" name="FECHA DE INGRESO MAURO" dataDxfId="26"/>
+    <tableColumn id="22" xr3:uid="{FE318CC0-74A7-45F3-B1B1-CA6F10922C5D}" name="AÑOS EN LA EMPRESA" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{AAF82CA2-29BC-4337-AF2D-DBF7D21A4EC1}" name="FECHA DE NACIMIENTO " dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{C1204C08-5407-4701-88FD-F1A00E34D31E}" name="DIRECCIÓN " dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{4868A5C1-9048-4245-9869-FC1EAE6BABD9}" name="TELEFONO " dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{B860C9EE-E324-4CEE-88F8-E6EDB53C9677}" name="CORREO ELECTRONICO " dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{5477139C-EC03-4174-83AF-4F236C5F8FB4}" name="NÚMERO DE EMERGENCIA " dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{C43EA365-97DB-4401-A9C3-9272B6157401}" name="ALERGIAS " dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{B8BAF8FF-D69F-431C-9741-6F6D05DEE5A7}" name="ENFERMEDADES " dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{4D54FA30-0F2A-43AF-A558-252ED265B24D}" name="TIPO DE SANGRE" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{C73F2AAE-CC10-48C4-9CE3-3A5C20E91D36}" name="ESTATUS " dataDxfId="16"/>
+    <tableColumn id="23" xr3:uid="{99FE810D-F88A-4DC6-A9AC-E0BF3431882C}" name="FECHA  CONTRATO DETERMINADO" dataDxfId="15"/>
+    <tableColumn id="24" xr3:uid="{CC7CECF8-C364-4317-B40F-F9563723D3A5}" name="FECHA CONTRATO INDETERMINADO" dataDxfId="14"/>
+    <tableColumn id="25" xr3:uid="{3FF22B8D-43AE-4DB1-B3E7-28EDAF79E374}" name="FECHA DE BAJA " dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1EA2C525-2629-4B7E-A2AB-815D056FB251}" name="Tabla5" displayName="Tabla5" ref="A4:Y8" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A4:Y8" xr:uid="{9F0F9F4D-7E3B-43F0-B73F-8463CA49201E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:V7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1EA2C525-2629-4B7E-A2AB-815D056FB251}" name="Tabla5" displayName="Tabla5" ref="A4:AA8" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A4:AA8" xr:uid="{9F0F9F4D-7E3B-43F0-B73F-8463CA49201E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:X7">
     <sortCondition ref="A4:A7"/>
   </sortState>
-  <tableColumns count="25">
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{4896A491-49FA-4E10-B390-A938CFF52E85}" name="NO."/>
     <tableColumn id="2" xr3:uid="{964E87F5-1FFE-4241-A9BE-58C9E592E9C4}" name="NOMBRE "/>
+    <tableColumn id="27" xr3:uid="{729E9CF1-DB8E-4EDE-96F4-AA09651246AF}" name="Column2"/>
+    <tableColumn id="26" xr3:uid="{FD0ECFC8-6AFC-4E27-8373-7964637B584F}" name="Column1"/>
     <tableColumn id="3" xr3:uid="{6EDA23B3-6081-448A-B6A7-E41632D9582B}" name="CURP "/>
     <tableColumn id="4" xr3:uid="{29FE431F-93DD-475F-9003-48EA7CE12195}" name="RFC "/>
     <tableColumn id="5" xr3:uid="{F967FAD5-7194-44CA-865F-C37521E630EC}" name="NSS"/>
@@ -3793,7 +3819,7 @@
     <tableColumn id="8" xr3:uid="{91814962-8BC2-42F1-B907-9304A51CCAB7}" name="EDAD">
       <calculatedColumnFormula>DATEDIF(Tabla5[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{5E7F8B29-CBC9-4126-8053-5854238FFA72}" name="FECHA INGRESO FERRE STEEL" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{5E7F8B29-CBC9-4126-8053-5854238FFA72}" name="FECHA INGRESO FERRE STEEL" dataDxfId="7"/>
     <tableColumn id="9" xr3:uid="{B3E8CC0A-CBC4-48D9-AEE3-8115C1B24651}" name="FECHA DE INGRESO "/>
     <tableColumn id="22" xr3:uid="{EAB74D25-950D-4CD3-A49F-6F159600FC02}" name="AÑOS EN LA EMPRESA">
       <calculatedColumnFormula>DATEDIF(Tabla5[[#This Row],[FECHA INGRESO FERRE STEEL]],TODAY(),"Y")</calculatedColumnFormula>
@@ -3808,9 +3834,9 @@
     <tableColumn id="17" xr3:uid="{A099965B-9327-49EC-81A2-0B3D0AF7286F}" name="TIPO DE SANGRE"/>
     <tableColumn id="18" xr3:uid="{4EBFC5CB-DE2A-465E-B400-54D4AECFE694}" name="PSICOMETRICO "/>
     <tableColumn id="19" xr3:uid="{E5E72EEB-AE5A-4BC6-82D8-61CC0927D41E}" name="ESTATUS "/>
-    <tableColumn id="20" xr3:uid="{C43E9C92-120B-4EA8-8DB8-C8FD2503D6B4}" name="FOTOGRAFIA " dataDxfId="9"/>
-    <tableColumn id="23" xr3:uid="{E6CFD6C9-4BB6-46FE-88D0-F2B4530EE0D8}" name="FECHA CONTRATO DETERMINADO" dataDxfId="8"/>
-    <tableColumn id="24" xr3:uid="{97AB9869-5483-40B0-9AC4-9E150FFCD40C}" name="FECHA CONTRATO INDETERMINADO" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{C43E9C92-120B-4EA8-8DB8-C8FD2503D6B4}" name="FOTOGRAFIA " dataDxfId="6"/>
+    <tableColumn id="23" xr3:uid="{E6CFD6C9-4BB6-46FE-88D0-F2B4530EE0D8}" name="FECHA CONTRATO DETERMINADO" dataDxfId="5"/>
+    <tableColumn id="24" xr3:uid="{97AB9869-5483-40B0-9AC4-9E150FFCD40C}" name="FECHA CONTRATO INDETERMINADO" dataDxfId="4"/>
     <tableColumn id="25" xr3:uid="{3728B34F-9012-4686-A6E2-350737BF57D5}" name="FECHA DE BAJA "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4106,7 +4132,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4114,2126 +4140,2219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F05A65-D5EE-42CF-A665-4AA3FF928182}">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="4" width="46" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" customWidth="1"/>
-    <col min="19" max="19" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.140625" customWidth="1"/>
-    <col min="22" max="22" width="21.28515625" customWidth="1"/>
-    <col min="23" max="23" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="5" width="46" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="56" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.42578125" style="56" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.140625" customWidth="1"/>
+    <col min="23" max="23" width="21.28515625" style="56" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>339</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="5">
         <v>33796146828</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>60</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="52">
         <v>43703</v>
       </c>
-      <c r="L2" s="5">
+      <c r="M2" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>3</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="52">
         <v>22778</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="5"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="9">
+      <c r="W2" s="57">
         <v>43703</v>
       </c>
-      <c r="W2" s="9">
+      <c r="X2" s="57">
         <v>43703</v>
       </c>
-      <c r="X2" s="10"/>
+      <c r="Y2" s="9"/>
     </row>
-    <row r="3" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>33836105966</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>61</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L3" s="52">
         <v>43848</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>2</v>
       </c>
-      <c r="M3" s="6">
+      <c r="N3" s="52">
         <v>22360</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="5"/>
+      <c r="O3" s="7"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="5"/>
+      <c r="V3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="6">
+      <c r="W3" s="52"/>
+      <c r="X3" s="52">
         <v>43848</v>
       </c>
-      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
     </row>
-    <row r="4" spans="1:24" s="11" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:25" s="10" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>348</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>33846749878</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>55</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="52">
         <v>44011</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>2</v>
       </c>
-      <c r="M4" s="6">
+      <c r="N4" s="52">
         <v>24719</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>6566266925</v>
       </c>
-      <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="5"/>
+      <c r="S4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="5"/>
+      <c r="V4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="6">
+      <c r="W4" s="52">
         <v>44004</v>
       </c>
-      <c r="W4" s="6">
+      <c r="X4" s="52">
         <v>44400</v>
       </c>
-      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
     </row>
-    <row r="5" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>351</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>66169813582</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>24</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="52">
         <v>44206</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>1</v>
       </c>
-      <c r="M5" s="6">
+      <c r="N5" s="52">
         <v>36069</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>6565761907</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="Q5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="R5" s="5"/>
       <c r="S5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5" t="s">
+      <c r="T5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="5"/>
     </row>
-    <row r="6" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
         <v>12</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>354</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>33099116619</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>31</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="52">
         <v>44273</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>1</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="52">
         <v>33294</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>6561697966</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="Q6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="R6" s="5"/>
       <c r="S6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5" t="s">
+      <c r="T6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="6">
+      <c r="W6" s="52">
         <v>44270</v>
       </c>
-      <c r="W6" s="6">
+      <c r="X6" s="52">
         <v>44362</v>
       </c>
-      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
     </row>
-    <row r="7" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>357</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>3386691238</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>53</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="52">
         <v>44287</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>1</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="52">
         <v>25544</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="O7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>6562716449</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="Q7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="5"/>
+      <c r="S7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="5"/>
+      <c r="V7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="5"/>
     </row>
-    <row r="8" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+    <row r="8" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12">
         <v>17</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="14">
+      <c r="H8" s="13">
         <v>33937781996</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="14">
+      <c r="K8" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>45</v>
       </c>
-      <c r="K8" s="15">
+      <c r="L8" s="54">
         <v>44349</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>1</v>
       </c>
-      <c r="M8" s="15">
+      <c r="N8" s="54">
         <v>28270</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="O8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="14">
+      <c r="P8" s="13">
         <v>6566752513</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="Q8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14" t="s">
+      <c r="R8" s="13"/>
+      <c r="S8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="T8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="5" t="s">
+      <c r="U8" s="13"/>
+      <c r="V8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V8" s="6">
+      <c r="W8" s="52">
         <v>44347</v>
       </c>
-      <c r="W8" s="6">
+      <c r="X8" s="52">
         <v>44439</v>
       </c>
-      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
     </row>
-    <row r="9" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+    <row r="9" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12">
         <v>22</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="C9" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="14">
+      <c r="H9" s="13">
         <v>33028534577</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="14">
+      <c r="K9" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>37</v>
       </c>
-      <c r="K9" s="15">
+      <c r="L9" s="54">
         <v>44468</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>1</v>
       </c>
-      <c r="M9" s="15">
+      <c r="N9" s="54">
         <v>31357</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="O9" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="14">
+      <c r="P9" s="13">
         <v>6567685976</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="Q9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="13"/>
+      <c r="S9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="5" t="s">
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+    <row r="10" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
         <v>25</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="C10" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="14">
+      <c r="H10" s="13">
         <v>33129544764</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="14">
+      <c r="K10" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>27</v>
       </c>
-      <c r="K10" s="15">
+      <c r="L10" s="54">
         <v>44533</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>1</v>
       </c>
-      <c r="M10" s="15">
+      <c r="N10" s="54">
         <v>34743</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="O10" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="O10" s="14">
+      <c r="P10" s="13">
         <v>65661106799</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="Q10" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14" t="s">
+      <c r="R10" s="13"/>
+      <c r="S10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="T10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="5" t="s">
+      <c r="U10" s="13"/>
+      <c r="V10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V10" s="6">
+      <c r="W10" s="52">
         <v>44533</v>
       </c>
-      <c r="W10" s="6">
+      <c r="X10" s="52">
         <v>44533</v>
       </c>
-      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
     </row>
-    <row r="11" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+    <row r="11" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12">
         <v>27</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="C11" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="14">
+      <c r="H11" s="13">
         <v>33856943742</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="14">
+      <c r="K11" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>51</v>
       </c>
-      <c r="K11" s="15">
+      <c r="L11" s="54">
         <v>44540</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>1</v>
       </c>
-      <c r="M11" s="15">
+      <c r="N11" s="54">
         <v>26000</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="O11" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="O11" s="14">
+      <c r="P11" s="13">
         <v>6566060497</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="Q11" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14" t="s">
+      <c r="R11" s="13"/>
+      <c r="S11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="14" t="s">
+      <c r="T11" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="5" t="s">
+      <c r="U11" s="13"/>
+      <c r="V11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V11" s="6">
+      <c r="W11" s="52">
         <v>44547</v>
       </c>
-      <c r="W11" s="6">
+      <c r="X11" s="52">
         <v>44547</v>
       </c>
-      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
     </row>
-    <row r="12" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+    <row r="12" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12">
         <v>28</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="C12" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="14">
+      <c r="H12" s="13">
         <v>33988025343</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="14">
+      <c r="K12" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>42</v>
       </c>
-      <c r="K12" s="15">
+      <c r="L12" s="54">
         <v>44564</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>1</v>
       </c>
-      <c r="M12" s="15">
+      <c r="N12" s="54">
         <v>29488</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="O12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="14">
+      <c r="P12" s="13">
         <v>6567788200</v>
       </c>
-      <c r="P12" s="17" t="s">
+      <c r="Q12" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14" t="s">
+      <c r="R12" s="13"/>
+      <c r="S12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S12" s="14" t="s">
+      <c r="T12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="5" t="s">
+      <c r="U12" s="13"/>
+      <c r="V12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V12" s="6">
+      <c r="W12" s="52">
         <v>44564</v>
       </c>
-      <c r="W12" s="6">
+      <c r="X12" s="52">
         <v>44564</v>
       </c>
-      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
     </row>
-    <row r="13" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+    <row r="13" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12">
         <v>30</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="C13" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="14">
+      <c r="H13" s="13">
         <v>33998352232</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="I13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="14">
+      <c r="K13" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>39</v>
       </c>
-      <c r="K13" s="15">
+      <c r="L13" s="54">
         <v>44579</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="M13" s="15">
+      <c r="N13" s="54">
         <v>30465</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="O13" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="O13" s="14">
+      <c r="P13" s="13">
         <v>6565750553</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="Q13" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14" t="s">
+      <c r="R13" s="13"/>
+      <c r="S13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S13" s="14" t="s">
+      <c r="T13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="14"/>
-      <c r="U13" s="5" t="s">
+      <c r="U13" s="13"/>
+      <c r="V13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V13" s="6">
+      <c r="W13" s="52">
         <v>44579</v>
       </c>
-      <c r="W13" s="6">
+      <c r="X13" s="52">
         <v>44669</v>
       </c>
-      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
     </row>
-    <row r="14" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+    <row r="14" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12">
         <v>32</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="C14" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="14">
+      <c r="H14" s="13">
         <v>34907390297</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="I14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="J14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="14">
+      <c r="K14" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>48</v>
       </c>
-      <c r="K14" s="15">
+      <c r="L14" s="54">
         <v>44585</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="M14" s="15">
+      <c r="N14" s="54">
         <v>27387</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="O14" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="O14" s="14">
+      <c r="P14" s="13">
         <v>6566757188</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="Q14" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14" t="s">
+      <c r="R14" s="13"/>
+      <c r="S14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S14" s="14" t="s">
+      <c r="T14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="5" t="s">
+      <c r="U14" s="13"/>
+      <c r="V14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V14" s="6">
+      <c r="W14" s="52">
         <v>44585</v>
       </c>
-      <c r="W14" s="6">
+      <c r="X14" s="52">
         <v>44585</v>
       </c>
-      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
     </row>
-    <row r="15" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+    <row r="15" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12">
         <v>33</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="C15" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="14">
+      <c r="H15" s="13">
         <v>63169603899</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="I15" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="J15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="14">
+      <c r="K15" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>26</v>
       </c>
-      <c r="K15" s="15">
+      <c r="L15" s="54">
         <v>44602</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="M15" s="15">
+      <c r="N15" s="54">
         <v>35337</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="O15" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="O15" s="14">
+      <c r="P15" s="13">
         <v>6564581218</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="Q15" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14" t="s">
+      <c r="R15" s="13"/>
+      <c r="S15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S15" s="14" t="s">
+      <c r="T15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="5" t="s">
+      <c r="U15" s="13"/>
+      <c r="V15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V15" s="6">
+      <c r="W15" s="52">
         <v>44602</v>
       </c>
-      <c r="W15" s="6">
+      <c r="X15" s="52">
         <v>44602</v>
       </c>
-      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
     </row>
-    <row r="16" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+    <row r="16" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12">
         <v>34</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="C16" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="14">
+      <c r="H16" s="13">
         <v>5169748398</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="I16" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="J16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="14">
+      <c r="K16" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>25</v>
       </c>
-      <c r="K16" s="15">
+      <c r="L16" s="54">
         <v>44606</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M16" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="M16" s="15">
+      <c r="N16" s="54">
         <v>35742</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="O16" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="O16" s="14">
+      <c r="P16" s="13">
         <v>6567734321</v>
       </c>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14" t="s">
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S16" s="14" t="s">
+      <c r="T16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="5" t="s">
+      <c r="U16" s="13"/>
+      <c r="V16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V16" s="6">
+      <c r="W16" s="52">
         <v>44606</v>
       </c>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="5"/>
     </row>
-    <row r="17" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+    <row r="17" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16">
         <v>36</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="E17" s="19" t="s">
+      <c r="C17" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="19">
+      <c r="H17" s="17">
         <v>33886916627</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="I17" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="J17" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="19">
+      <c r="K17" s="17">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>53</v>
       </c>
-      <c r="K17" s="20">
+      <c r="L17" s="55">
         <v>44627</v>
       </c>
-      <c r="L17" s="21">
+      <c r="M17" s="18">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="M17" s="20">
+      <c r="N17" s="55">
         <v>25527</v>
       </c>
-      <c r="N17" s="22" t="s">
+      <c r="O17" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="O17" s="19">
+      <c r="P17" s="17">
         <v>6563110096</v>
       </c>
-      <c r="P17" s="23" t="s">
+      <c r="Q17" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19" t="s">
+      <c r="R17" s="17"/>
+      <c r="S17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="S17" s="19" t="s">
+      <c r="T17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="19"/>
-      <c r="U17" s="21" t="s">
+      <c r="U17" s="17"/>
+      <c r="V17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+    <row r="18" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12">
         <v>39</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="C18" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="G18" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="14">
+      <c r="H18" s="13">
         <v>33977925701</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="I18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="J18" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="14">
+      <c r="K18" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>43</v>
       </c>
-      <c r="K18" s="15">
+      <c r="L18" s="54">
         <v>44662</v>
       </c>
-      <c r="L18" s="5">
+      <c r="M18" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="M18" s="15">
+      <c r="N18" s="54">
         <v>28870</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="O18" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="O18" s="14">
+      <c r="P18" s="13">
         <v>6561071246</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="Q18" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14" t="s">
+      <c r="R18" s="13"/>
+      <c r="S18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="S18" s="14" t="s">
+      <c r="T18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="T18" s="14"/>
-      <c r="U18" s="5" t="s">
+      <c r="U18" s="13"/>
+      <c r="V18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V18" s="6">
+      <c r="W18" s="52">
         <v>44662</v>
       </c>
-      <c r="W18" s="6">
+      <c r="X18" s="52">
         <v>44662</v>
       </c>
-      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
     </row>
-    <row r="19" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+    <row r="19" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12">
         <v>43</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="14">
+      <c r="H19" s="13">
         <v>33068760488</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="I19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="J19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="14">
+      <c r="K19" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>35</v>
       </c>
-      <c r="K19" s="15">
+      <c r="L19" s="54">
         <v>44683</v>
       </c>
-      <c r="L19" s="5">
+      <c r="M19" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="M19" s="15">
+      <c r="N19" s="54">
         <v>32022</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="O19" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="O19" s="14">
+      <c r="P19" s="13">
         <v>6563008003</v>
       </c>
-      <c r="P19" s="17" t="s">
+      <c r="Q19" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14" t="s">
+      <c r="R19" s="13"/>
+      <c r="S19" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="S19" s="14" t="s">
+      <c r="T19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="14"/>
-      <c r="U19" s="5" t="s">
+      <c r="U19" s="13"/>
+      <c r="V19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V19" s="6">
+      <c r="W19" s="52">
         <v>44683</v>
       </c>
-      <c r="W19" s="6">
+      <c r="X19" s="52">
         <v>44683</v>
       </c>
-      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+    <row r="20" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12">
         <v>44</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="C20" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="14">
+      <c r="H20" s="13">
         <v>25189999532</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="I20" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="J20" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="J20" s="14">
+      <c r="K20" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>23</v>
       </c>
-      <c r="K20" s="15">
+      <c r="L20" s="54">
         <v>44725</v>
       </c>
-      <c r="L20" s="5">
+      <c r="M20" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="M20" s="15">
+      <c r="N20" s="54">
         <v>36220</v>
       </c>
-      <c r="N20" s="16" t="s">
+      <c r="O20" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="O20" s="14">
+      <c r="P20" s="13">
         <v>6567636864</v>
       </c>
-      <c r="P20" s="17" t="s">
+      <c r="Q20" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14" t="s">
+      <c r="R20" s="13"/>
+      <c r="S20" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="S20" s="14" t="s">
+      <c r="T20" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="T20" s="14"/>
-      <c r="U20" s="5" t="s">
+      <c r="U20" s="13"/>
+      <c r="V20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V20" s="6">
+      <c r="W20" s="52">
         <v>44725</v>
       </c>
-      <c r="W20" s="6">
+      <c r="X20" s="52">
         <v>44817</v>
       </c>
-      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
     </row>
-    <row r="21" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+    <row r="21" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12">
         <v>45</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="C21" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="14">
+      <c r="H21" s="13">
         <v>35139504878</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="I21" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="J21" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J21" s="14">
+      <c r="K21" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>27</v>
       </c>
-      <c r="K21" s="15">
+      <c r="L21" s="54">
         <v>44746</v>
       </c>
-      <c r="L21" s="5">
+      <c r="M21" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="M21" s="15">
+      <c r="N21" s="54">
         <v>34753</v>
       </c>
-      <c r="N21" s="16" t="s">
+      <c r="O21" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="O21" s="14">
+      <c r="P21" s="13">
         <v>6565850300</v>
       </c>
-      <c r="P21" s="17" t="s">
+      <c r="Q21" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14" t="s">
+      <c r="R21" s="13"/>
+      <c r="S21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S21" s="14" t="s">
+      <c r="T21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="T21" s="14"/>
-      <c r="U21" s="5" t="s">
+      <c r="U21" s="13"/>
+      <c r="V21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V21" s="6">
+      <c r="W21" s="52">
         <v>44746</v>
       </c>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+    <row r="22" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12">
         <v>49</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="C22" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G22" s="14">
+      <c r="H22" s="13">
         <v>8169448159</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="I22" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="J22" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="14">
+      <c r="K22" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>28</v>
       </c>
-      <c r="K22" s="15">
+      <c r="L22" s="54">
         <v>44754</v>
       </c>
-      <c r="L22" s="5">
+      <c r="M22" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="M22" s="15">
+      <c r="N22" s="54">
         <v>34452</v>
       </c>
-      <c r="N22" s="16" t="s">
+      <c r="O22" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="O22" s="14">
+      <c r="P22" s="13">
         <v>6568514555</v>
       </c>
-      <c r="P22" s="17" t="s">
+      <c r="Q22" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14" t="s">
+      <c r="R22" s="13"/>
+      <c r="S22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S22" s="14" t="s">
+      <c r="T22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="T22" s="14"/>
-      <c r="U22" s="5" t="s">
+      <c r="U22" s="13"/>
+      <c r="V22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V22" s="6">
+      <c r="W22" s="52">
         <v>44754</v>
       </c>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+    <row r="23" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12">
         <v>55</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="C23" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="14">
+      <c r="H23" s="13">
         <v>66169990067</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="I23" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="J23" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="J23" s="14">
+      <c r="K23" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>23</v>
       </c>
-      <c r="K23" s="15">
+      <c r="L23" s="54">
         <v>44844</v>
       </c>
-      <c r="L23" s="5">
+      <c r="M23" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="M23" s="15">
+      <c r="N23" s="54">
         <v>36319</v>
       </c>
-      <c r="N23" s="16" t="s">
+      <c r="O23" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="O23" s="14">
+      <c r="P23" s="13">
         <v>6561840532</v>
       </c>
-      <c r="P23" s="17" t="s">
+      <c r="Q23" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="Q23" s="16" t="s">
+      <c r="R23" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="R23" s="14" t="s">
+      <c r="S23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S23" s="14" t="s">
+      <c r="T23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="T23" s="14" t="s">
+      <c r="U23" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="U23" s="5" t="s">
+      <c r="V23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V23" s="6">
+      <c r="W23" s="52">
         <v>44844</v>
       </c>
-      <c r="W23" s="6">
+      <c r="X23" s="52">
         <v>44875</v>
       </c>
-      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+    <row r="24" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12">
         <v>56</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="C24" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="14">
+      <c r="H24" s="13">
         <v>58159775053</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="I24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="J24" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="14">
+      <c r="K24" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>25</v>
       </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="5">
+      <c r="L24" s="54"/>
+      <c r="M24" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>123</v>
       </c>
-      <c r="M24" s="15">
+      <c r="N24" s="54">
         <v>35529</v>
       </c>
-      <c r="N24" s="16" t="s">
+      <c r="O24" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="O24" s="14">
+      <c r="P24" s="13">
         <v>6564148980</v>
       </c>
-      <c r="P24" s="17" t="s">
+      <c r="Q24" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="R24" s="21">
         <v>6561970275</v>
       </c>
-      <c r="R24" s="14" t="s">
+      <c r="S24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S24" s="14" t="s">
+      <c r="T24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="T24" s="14"/>
-      <c r="U24" s="5" t="s">
+      <c r="U24" s="13"/>
+      <c r="V24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V24" s="6">
+      <c r="W24" s="52">
         <v>44907</v>
       </c>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+    <row r="25" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12">
         <v>50</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="C25" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="G25" s="14">
+      <c r="H25" s="13">
         <v>17169982299</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="13"/>
+      <c r="J25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="14">
+      <c r="K25" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>23</v>
       </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="5">
+      <c r="L25" s="54"/>
+      <c r="M25" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>123</v>
       </c>
-      <c r="M25" s="15">
+      <c r="N25" s="54">
         <v>36411</v>
       </c>
-      <c r="N25" s="16"/>
       <c r="O25" s="14"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="5" t="s">
+      <c r="P25" s="13"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V25" s="6">
+      <c r="W25" s="52">
         <v>44789</v>
       </c>
-      <c r="W25" s="6">
+      <c r="X25" s="52">
         <v>44820</v>
       </c>
-      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+    <row r="26" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12">
         <v>51</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="C26" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="14">
+      <c r="H26" s="13">
         <v>35968034179</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14">
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
-        <v>42</v>
-      </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="5">
+        <v>43</v>
+      </c>
+      <c r="L26" s="54"/>
+      <c r="M26" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>123</v>
       </c>
-      <c r="M26" s="15">
+      <c r="N26" s="54">
         <v>29224</v>
       </c>
-      <c r="N26" s="16" t="s">
+      <c r="O26" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="O26" s="14"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="5" t="s">
+      <c r="P26" s="13"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6">
+      <c r="W26" s="52"/>
+      <c r="X26" s="52">
         <v>44833</v>
       </c>
-      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+    <row r="27" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12">
         <v>53</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="E27" s="14" t="s">
+      <c r="C27" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="G27" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G27" s="14">
+      <c r="H27" s="13">
         <v>33089230164</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="I27" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="J27" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J27" s="14">
+      <c r="K27" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>30</v>
       </c>
-      <c r="K27" s="15">
+      <c r="L27" s="54">
         <v>44837</v>
       </c>
-      <c r="L27" s="5">
+      <c r="M27" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="M27" s="15">
+      <c r="N27" s="54">
         <v>33734</v>
       </c>
-      <c r="N27" s="16" t="s">
+      <c r="O27" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="21" t="s">
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+    <row r="28" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12">
         <v>57</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="E28" s="14" t="s">
+      <c r="C28" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="G28" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="14">
+      <c r="H28" s="13">
         <v>62160072849</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="I28" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="J28" s="14">
+      <c r="J28" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="K28" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>22</v>
       </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="5">
+      <c r="L28" s="54"/>
+      <c r="M28" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>123</v>
       </c>
-      <c r="M28" s="15">
+      <c r="N28" s="54">
         <v>36740</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="O28" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="O28" s="14">
+      <c r="P28" s="13">
         <v>6564639315</v>
       </c>
-      <c r="P28" s="17" t="s">
+      <c r="Q28" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="Q28" s="14">
+      <c r="R28" s="13">
         <v>6562401194</v>
       </c>
-      <c r="R28" s="14" t="s">
+      <c r="S28" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S28" s="14" t="s">
+      <c r="T28" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14" t="s">
+      <c r="U28" s="13"/>
+      <c r="V28" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V28" s="6">
+      <c r="W28" s="52">
         <v>44907</v>
       </c>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+    <row r="29" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12">
         <v>58</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="C29" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="G29" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="14">
+      <c r="H29" s="13">
         <v>35967948338</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="I29" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="J29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="14">
+      <c r="K29" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>43</v>
       </c>
-      <c r="K29" s="15">
+      <c r="L29" s="54">
         <v>44928</v>
       </c>
-      <c r="L29" s="5">
+      <c r="M29" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="M29" s="15">
+      <c r="N29" s="54">
         <v>29132</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="O29" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="O29" s="14">
+      <c r="P29" s="13">
         <v>6563201487</v>
       </c>
-      <c r="P29" s="17" t="s">
+      <c r="Q29" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14" t="s">
+      <c r="R29" s="13"/>
+      <c r="S29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S29" s="14" t="s">
+      <c r="T29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14" t="s">
+      <c r="U29" s="13"/>
+      <c r="V29" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+    <row r="30" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12">
         <v>54</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="C30" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="G30" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G30" s="14">
+      <c r="H30" s="13">
         <v>18159779885</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="I30" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="J30" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="J30" s="14">
+      <c r="K30" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>25</v>
       </c>
-      <c r="K30" s="15">
+      <c r="L30" s="54">
         <v>44837</v>
       </c>
-      <c r="L30" s="5">
+      <c r="M30" s="5">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="M30" s="15">
+      <c r="N30" s="54">
         <v>35744</v>
       </c>
-      <c r="N30" s="16" t="s">
+      <c r="O30" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14" t="s">
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V30" s="6">
+      <c r="W30" s="52">
         <v>44837</v>
       </c>
-      <c r="W30" s="6">
+      <c r="X30" s="52">
         <v>44868</v>
       </c>
-      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="1:24" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+    <row r="31" spans="1:25" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12">
         <v>59</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="E31" s="14" t="s">
+      <c r="C31" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="G31" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="G31" s="14">
+      <c r="H31" s="13">
         <v>33089303243</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="I31" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="J31" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J31" s="14">
+      <c r="K31" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>29</v>
       </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14">
+      <c r="L31" s="54"/>
+      <c r="M31" s="13">
         <f ca="1">DATEDIF(Tabla1[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>123</v>
       </c>
-      <c r="M31" s="15">
+      <c r="N31" s="54">
         <v>34228</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="O31" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14" t="s">
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S31" s="14" t="s">
+      <c r="T31" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="T31" s="14" t="s">
+      <c r="U31" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="U31" s="14" t="s">
+      <c r="V31" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="13"/>
     </row>
     <row r="34" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A2:X890">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$U2="BAJA"</formula>
+  <conditionalFormatting sqref="B2:Y890">
+    <cfRule type="expression" dxfId="65" priority="2">
+      <formula>$V2="BAJA"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="P5" r:id="rId1" xr:uid="{430C1154-BE9F-4455-9237-3097AD1145DD}"/>
-    <hyperlink ref="P9" r:id="rId2" xr:uid="{788322EC-4845-42D3-B06F-1EBD6CA633D4}"/>
-    <hyperlink ref="P8" r:id="rId3" xr:uid="{346E4E7E-E0E7-4CE0-B65F-0DBE519545B5}"/>
-    <hyperlink ref="P11" r:id="rId4" xr:uid="{DFF1D0E9-4D55-4EA6-B9C6-521F28FB05C5}"/>
-    <hyperlink ref="P12" r:id="rId5" xr:uid="{EF419A0F-3E64-4D22-BEDF-97E7CAD1321F}"/>
-    <hyperlink ref="P13" r:id="rId6" xr:uid="{EBB2CB7C-7022-4F64-B037-8BAE32001B73}"/>
-    <hyperlink ref="P14" r:id="rId7" xr:uid="{3C7745FB-D538-46C3-8D65-2950699D0DA1}"/>
-    <hyperlink ref="P10" r:id="rId8" xr:uid="{79D233A8-267D-47E4-8CF1-E470A12F65BF}"/>
-    <hyperlink ref="P15" r:id="rId9" xr:uid="{34ED217E-93B6-43BC-8E77-8D65AAC7CEB5}"/>
-    <hyperlink ref="P17" r:id="rId10" xr:uid="{A6091B33-6910-4944-B807-80C35976B620}"/>
-    <hyperlink ref="P18" r:id="rId11" xr:uid="{CDD1793A-729F-470E-BC11-7492F5C787C0}"/>
-    <hyperlink ref="P19" r:id="rId12" xr:uid="{135EE9F5-5535-4BEB-9E12-2A80A5849594}"/>
-    <hyperlink ref="P23" r:id="rId13" xr:uid="{79509420-B382-494D-9279-3E3D38CC18DC}"/>
-    <hyperlink ref="P22" r:id="rId14" xr:uid="{8E0DACE1-E146-4433-A3FF-F7E6B2D5F901}"/>
-    <hyperlink ref="P21" r:id="rId15" xr:uid="{9C24C2B3-6282-42F2-8709-1D5ACEEA01FE}"/>
-    <hyperlink ref="P20" r:id="rId16" xr:uid="{DB3C1F2E-A334-4DE7-A92E-3272E114307B}"/>
-    <hyperlink ref="P7" r:id="rId17" xr:uid="{CFFFF5DD-84D0-43D9-8C47-055EA77C54C7}"/>
-    <hyperlink ref="P6" r:id="rId18" xr:uid="{C7F5B0B3-09B8-4D61-B1D6-EBFEAD11300F}"/>
-    <hyperlink ref="P24" r:id="rId19" xr:uid="{6F59A9F9-B008-4FE1-BED3-CA9465BF0BF2}"/>
-    <hyperlink ref="P28" r:id="rId20" xr:uid="{18E6200E-6224-4928-B50F-55385A147562}"/>
-    <hyperlink ref="P29" r:id="rId21" xr:uid="{254D8AFB-2F64-4972-8BBA-00DAFCDEC4D9}"/>
+    <hyperlink ref="Q5" r:id="rId1" xr:uid="{430C1154-BE9F-4455-9237-3097AD1145DD}"/>
+    <hyperlink ref="Q9" r:id="rId2" xr:uid="{788322EC-4845-42D3-B06F-1EBD6CA633D4}"/>
+    <hyperlink ref="Q8" r:id="rId3" xr:uid="{346E4E7E-E0E7-4CE0-B65F-0DBE519545B5}"/>
+    <hyperlink ref="Q11" r:id="rId4" xr:uid="{DFF1D0E9-4D55-4EA6-B9C6-521F28FB05C5}"/>
+    <hyperlink ref="Q12" r:id="rId5" xr:uid="{EF419A0F-3E64-4D22-BEDF-97E7CAD1321F}"/>
+    <hyperlink ref="Q13" r:id="rId6" xr:uid="{EBB2CB7C-7022-4F64-B037-8BAE32001B73}"/>
+    <hyperlink ref="Q14" r:id="rId7" xr:uid="{3C7745FB-D538-46C3-8D65-2950699D0DA1}"/>
+    <hyperlink ref="Q10" r:id="rId8" xr:uid="{79D233A8-267D-47E4-8CF1-E470A12F65BF}"/>
+    <hyperlink ref="Q15" r:id="rId9" xr:uid="{34ED217E-93B6-43BC-8E77-8D65AAC7CEB5}"/>
+    <hyperlink ref="Q17" r:id="rId10" xr:uid="{A6091B33-6910-4944-B807-80C35976B620}"/>
+    <hyperlink ref="Q18" r:id="rId11" xr:uid="{CDD1793A-729F-470E-BC11-7492F5C787C0}"/>
+    <hyperlink ref="Q19" r:id="rId12" xr:uid="{135EE9F5-5535-4BEB-9E12-2A80A5849594}"/>
+    <hyperlink ref="Q23" r:id="rId13" xr:uid="{79509420-B382-494D-9279-3E3D38CC18DC}"/>
+    <hyperlink ref="Q22" r:id="rId14" xr:uid="{8E0DACE1-E146-4433-A3FF-F7E6B2D5F901}"/>
+    <hyperlink ref="Q21" r:id="rId15" xr:uid="{9C24C2B3-6282-42F2-8709-1D5ACEEA01FE}"/>
+    <hyperlink ref="Q20" r:id="rId16" xr:uid="{DB3C1F2E-A334-4DE7-A92E-3272E114307B}"/>
+    <hyperlink ref="Q7" r:id="rId17" xr:uid="{CFFFF5DD-84D0-43D9-8C47-055EA77C54C7}"/>
+    <hyperlink ref="Q6" r:id="rId18" xr:uid="{C7F5B0B3-09B8-4D61-B1D6-EBFEAD11300F}"/>
+    <hyperlink ref="Q24" r:id="rId19" xr:uid="{6F59A9F9-B008-4FE1-BED3-CA9465BF0BF2}"/>
+    <hyperlink ref="Q28" r:id="rId20" xr:uid="{18E6200E-6224-4928-B50F-55385A147562}"/>
+    <hyperlink ref="Q29" r:id="rId21" xr:uid="{254D8AFB-2F64-4972-8BBA-00DAFCDEC4D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId22"/>
@@ -6248,8 +6367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D67509-9D0E-4D1E-8F91-24E1E0A4340E}">
   <dimension ref="A4:Y11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6284,10 +6403,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
@@ -6343,28 +6462,28 @@
       <c r="V4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="25" t="s">
+      <c r="W4" s="22" t="s">
         <v>154</v>
       </c>
       <c r="X4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="Y4" s="34" t="s">
+      <c r="Y4" s="31" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="11" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+    <row r="5" spans="1:25" s="10" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>157</v>
@@ -6381,11 +6500,11 @@
       <c r="I5" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="23">
         <f ca="1">DATEDIF(Tabla2[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>45</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="26">
         <v>44467</v>
       </c>
       <c r="L5" s="6">
@@ -6404,150 +6523,150 @@
       <c r="P5" s="5">
         <v>6567593822</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="11" t="s">
         <v>161</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
-      <c r="V5" s="26" t="s">
+      <c r="V5" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="W5" s="31">
+      <c r="W5" s="28">
         <v>44377</v>
       </c>
-      <c r="X5" s="33" t="s">
+      <c r="X5" s="30" t="s">
         <v>163</v>
       </c>
       <c r="Y5" s="5"/>
     </row>
     <row r="6" spans="1:25" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="27">
         <v>3</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="E6" s="26" t="s">
+      <c r="B6" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="23">
         <v>25149309657</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="23">
         <f ca="1">DATEDIF(Tabla2[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>29</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="26">
         <v>44662</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="26">
         <v>44683</v>
       </c>
       <c r="M6" s="5">
         <f ca="1">DATEDIF(Tabla2[[#This Row],[FECHA DE INGRESO FERRE STEEL ]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="26">
         <v>34228</v>
       </c>
-      <c r="O6" s="28" t="s">
+      <c r="O6" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="23">
         <v>6568556439</v>
       </c>
-      <c r="Q6" s="27" t="s">
+      <c r="Q6" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26" t="s">
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="W6" s="31">
+      <c r="W6" s="28">
         <v>44683</v>
       </c>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
     </row>
     <row r="7" spans="1:25" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="E7" s="26" t="s">
+      <c r="B7" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="23">
         <v>33159805903</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="23">
         <f ca="1">DATEDIF(Tabla2[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>24</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="26">
         <v>44753</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="23">
         <f ca="1">DATEDIF(Tabla2[[#This Row],[FECHA DE INGRESO MAURO]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="26">
         <v>35941</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="23">
         <v>6564263627</v>
       </c>
-      <c r="Q7" s="27" t="s">
+      <c r="Q7" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26" t="s">
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23" t="s">
         <v>162</v>
       </c>
       <c r="W7" s="8"/>
@@ -6557,17 +6676,17 @@
       <c r="Y7" s="5"/>
     </row>
     <row r="8" spans="1:25" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="29">
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>175</v>
@@ -6584,17 +6703,17 @@
       <c r="I8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="23">
         <f ca="1">DATEDIF(Tabla2[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>50</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="23" t="s">
         <v>172</v>
       </c>
       <c r="L8" s="6">
         <v>44851</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="23">
         <f ca="1">DATEDIF(Tabla2[[#This Row],[FECHA DE INGRESO MAURO]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
@@ -6612,79 +6731,79 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="26" t="s">
+      <c r="V8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="W8" s="31"/>
+      <c r="W8" s="28"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="5"/>
     </row>
     <row r="9" spans="1:25" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="27">
         <v>9</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="E9" s="26" t="s">
+      <c r="B9" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="23">
         <v>6269727484</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="23">
         <f ca="1">DATEDIF(Tabla2[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>25</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="26">
         <v>44851</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="23">
         <f ca="1">DATEDIF(Tabla2[[#This Row],[FECHA DE INGRESO MAURO]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="26">
         <v>35748</v>
       </c>
-      <c r="O9" s="28" t="s">
+      <c r="O9" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="27" t="s">
+      <c r="P9" s="23"/>
+      <c r="Q9" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="R9" s="26">
+      <c r="R9" s="23">
         <v>6565377303</v>
       </c>
-      <c r="S9" s="26" t="s">
+      <c r="S9" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26" t="s">
+      <c r="T9" s="23"/>
+      <c r="U9" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="V9" s="26" t="s">
+      <c r="V9" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="W9" s="31">
+      <c r="W9" s="28">
         <v>44851</v>
       </c>
       <c r="X9" s="6">
@@ -6693,17 +6812,17 @@
       <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:25" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="29">
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>435</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>185</v>
@@ -6720,17 +6839,17 @@
       <c r="I10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="23">
         <f ca="1">DATEDIF(Tabla2[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>40</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="23" t="s">
         <v>172</v>
       </c>
       <c r="L10" s="6">
         <v>44866</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="23">
         <f ca="1">DATEDIF(Tabla2[[#This Row],[FECHA DE INGRESO MAURO]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
@@ -6741,7 +6860,7 @@
         <v>187</v>
       </c>
       <c r="P10" s="5"/>
-      <c r="Q10" s="12"/>
+      <c r="Q10" s="11"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
@@ -6749,7 +6868,7 @@
       <c r="V10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="W10" s="31">
+      <c r="W10" s="28">
         <v>44866</v>
       </c>
       <c r="X10" s="6">
@@ -6758,63 +6877,63 @@
       <c r="Y10" s="5"/>
     </row>
     <row r="11" spans="1:25" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="A11" s="27">
         <v>11</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>432</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="E11" s="26" t="s">
+      <c r="B11" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="23">
         <f ca="1">DATEDIF(Tabla2[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>35</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="26">
         <v>44879</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="23">
         <f ca="1">DATEDIF(Tabla2[[#This Row],[FECHA DE INGRESO MAURO]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="26">
         <v>31819</v>
       </c>
-      <c r="O11" s="28" t="s">
+      <c r="O11" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26" t="s">
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="W11" s="25" t="s">
+      <c r="W11" s="22" t="s">
         <v>192</v>
       </c>
       <c r="X11" s="6">
@@ -6826,7 +6945,7 @@
   <dataConsolidate/>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A5:V88">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="39" priority="4">
       <formula>$V5="BAJA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6848,375 +6967,403 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C81FCE-93AA-4E29-89FB-95458BD3B643}">
-  <dimension ref="A4:Y8"/>
+  <dimension ref="A4:AA8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="20" width="17" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" customWidth="1"/>
+    <col min="3" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" customWidth="1"/>
+    <col min="26" max="26" width="17.5703125" customWidth="1"/>
+    <col min="27" max="27" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="F4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="G4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="H4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="I4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="J4" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="K4" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="L4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="M4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="N4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="O4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="36" t="s">
+      <c r="P4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="Q4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="R4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="S4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="T4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="U4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="36" t="s">
+      <c r="V4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="36" t="s">
+      <c r="W4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="38" t="s">
+      <c r="X4" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="W4" s="39" t="s">
+      <c r="Y4" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="X4" s="39" t="s">
+      <c r="Z4" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="Y4" s="36" t="s">
+      <c r="AA4" s="33" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+    <row r="5" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="F5" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" s="26">
+      <c r="G5" s="23">
         <v>58169976261</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="H5" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="I5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="26">
+      <c r="J5" s="23">
         <f ca="1">DATEDIF(Tabla5[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>23</v>
       </c>
-      <c r="I5" s="29">
+      <c r="K5" s="26">
         <v>44804</v>
       </c>
-      <c r="J5" s="29">
+      <c r="L5" s="26">
         <v>44683</v>
       </c>
-      <c r="K5" s="26">
+      <c r="M5" s="23">
         <f ca="1">DATEDIF(Tabla5[[#This Row],[FECHA INGRESO FERRE STEEL]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="L5" s="29">
+      <c r="N5" s="26">
         <v>36419</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="O5" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="P5" s="23">
+        <v>6565931820</v>
+      </c>
+      <c r="Q5" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="N5" s="26">
-        <v>6565931820</v>
-      </c>
-      <c r="O5" s="27" t="s">
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="6">
+        <v>44347</v>
+      </c>
+      <c r="Z5" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="V5" s="26"/>
-      <c r="W5" s="6">
-        <v>44347</v>
-      </c>
-      <c r="X5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <v>2</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
-        <v>2</v>
-      </c>
-      <c r="B6" s="41" t="s">
+      <c r="F6" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" s="41">
+      <c r="G6" s="38">
         <v>2159050984</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="H6" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="I6" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="H6" s="26">
+      <c r="J6" s="23">
         <f ca="1">DATEDIF(Tabla5[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>32</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="K6" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="J6" s="42">
+      <c r="L6" s="39">
         <v>44683</v>
       </c>
-      <c r="K6" s="26">
+      <c r="M6" s="23">
         <f ca="1">DATEDIF(Tabla5[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="42">
+      <c r="N6" s="39">
         <v>33130</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="O6" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="P6" s="38">
+        <v>6563612524</v>
+      </c>
+      <c r="Q6" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="6">
+        <v>44683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>3</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="N6" s="41">
-        <v>6563612524</v>
-      </c>
-      <c r="O6" s="44" t="s">
+      <c r="F7" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="V6" s="41"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="6">
-        <v>44683</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
-        <v>3</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="G7" s="23">
         <v>8189547618</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="H7" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="I7" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="26">
+      <c r="J7" s="23">
         <f ca="1">DATEDIF(Tabla5[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>27</v>
       </c>
-      <c r="I7" s="29">
+      <c r="K7" s="26">
         <v>44677</v>
       </c>
-      <c r="J7" s="29">
+      <c r="L7" s="26">
         <v>44683</v>
       </c>
-      <c r="K7" s="26">
+      <c r="M7" s="23">
         <f ca="1">DATEDIF(Tabla5[[#This Row],[FECHA INGRESO FERRE STEEL]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="L7" s="29">
+      <c r="N7" s="26">
         <v>34968</v>
       </c>
-      <c r="M7" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="N7" s="26">
+      <c r="O7" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="P7" s="23">
         <v>6565512890</v>
       </c>
-      <c r="O7" s="27"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="26"/>
-      <c r="W7" s="6">
+      <c r="X7" s="23"/>
+      <c r="Y7" s="6">
         <v>44677</v>
       </c>
-      <c r="X7" s="6">
+      <c r="Z7" s="6">
         <v>44683</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+    <row r="8" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>209</v>
+        <v>410</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>210</v>
+        <v>410</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" s="5">
+        <v>440</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="5">
         <v>33058863334</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="26">
+      <c r="J8" s="23">
         <f ca="1">DATEDIF(Tabla5[[#This Row],[FECHA DE NACIMIENTO ]],TODAY(),"Y")</f>
         <v>34</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="K8" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="J8" s="6">
+      <c r="L8" s="6">
         <v>44893</v>
       </c>
-      <c r="K8" s="26">
+      <c r="M8" s="23">
         <f ca="1">DATEDIF(Tabla5[[#This Row],[FECHA DE INGRESO ]],TODAY(),"Y")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="6">
+      <c r="N8" s="6">
         <v>32275</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="P8" s="5">
         <v>6564373950</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="5" t="s">
+      <c r="Q8" s="5"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V8" s="34"/>
-      <c r="W8" s="6">
+      <c r="X8" s="31"/>
+      <c r="Y8" s="6">
         <v>44893</v>
       </c>
-      <c r="X8" s="5"/>
+      <c r="Z8" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5:U73">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$U5="BAJA"</formula>
+  <conditionalFormatting sqref="A5:W73">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>$W5="BAJA"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O5" r:id="rId1" xr:uid="{FD2FAF49-8301-4E80-83DE-D0142F60A6C3}"/>
-    <hyperlink ref="O6" r:id="rId2" xr:uid="{CC2343C4-B82B-48CD-845F-3D83068AEC42}"/>
+    <hyperlink ref="Q5" r:id="rId1" xr:uid="{FD2FAF49-8301-4E80-83DE-D0142F60A6C3}"/>
+    <hyperlink ref="Q6" r:id="rId2" xr:uid="{CC2343C4-B82B-48CD-845F-3D83068AEC42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -7233,7 +7380,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7247,697 +7394,697 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="F1" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="G1" s="43" t="s">
         <v>215</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="G2" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="J2" t="s">
         <v>222</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="J2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="F3" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
+      <c r="G3" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
+      <c r="G4" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="F5" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
+      <c r="G5" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="F6" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
+      <c r="G6" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="47" t="s">
+      <c r="A7" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="47" t="s">
-        <v>252</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
+      <c r="E7" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="47" t="s">
+      <c r="A8" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
+      <c r="E8" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="F9" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
+      <c r="G9" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="47" t="s">
+      <c r="A10" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
+      <c r="E10" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="47" t="s">
+      <c r="A11" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="47" t="s">
-        <v>270</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
+      <c r="E11" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="F12" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>275</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="G12" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>278</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50" t="s">
+      <c r="A13" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="50" t="s">
-        <v>279</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>225</v>
+      <c r="E13" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34" t="s">
-        <v>225</v>
+      <c r="A14" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34" t="s">
-        <v>225</v>
+      <c r="A15" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34" t="s">
-        <v>225</v>
+      <c r="A16" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34" t="s">
-        <v>225</v>
+      <c r="A17" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34" t="s">
-        <v>225</v>
+      <c r="A18" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34" t="s">
-        <v>225</v>
+      <c r="A19" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
+      <c r="A24" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="G25" s="34" t="s">
+      <c r="A25" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="F25" s="31" t="s">
         <v>293</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>293</v>
+      <c r="A26" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="F27" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>225</v>
+      <c r="G27" s="31" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="F28" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="B28" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="E28" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>293</v>
+      <c r="G28" s="31" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="E29" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="F29" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="C29" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>315</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>293</v>
+      <c r="G29" s="31" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="F30" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>293</v>
+      <c r="G30" s="31" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>324</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>326</v>
-      </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34" t="s">
-        <v>293</v>
+      <c r="A31" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="F32" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="B32" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="E32" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>293</v>
+      <c r="G32" s="31" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="47" t="s">
+      <c r="A33" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="E33" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="G33" s="34" t="s">
-        <v>293</v>
+      <c r="E33" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
